--- a/fhir/ig/urgencia/CodeSystem-TituloProfesional.xlsx
+++ b/fhir/ig/urgencia/CodeSystem-TituloProfesional.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T14:38:19-03:00</t>
+    <t>2024-12-13T10:10:51-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/urgencia/CodeSystem-TituloProfesional.xlsx
+++ b/fhir/ig/urgencia/CodeSystem-TituloProfesional.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="89">
   <si>
     <t>Property</t>
   </si>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T10:10:51-03:00</t>
+    <t>2024-12-16T14:50:05-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>Case Sensitive</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
   <si>
     <t>Value Set (all codes)</t>
@@ -549,53 +552,53 @@
         <v>28</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -613,291 +616,291 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D24" s="2"/>
     </row>

--- a/fhir/ig/urgencia/CodeSystem-TituloProfesional.xlsx
+++ b/fhir/ig/urgencia/CodeSystem-TituloProfesional.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T14:50:05-03:00</t>
+    <t>2024-12-17T10:22:12-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
